--- a/data/processed/anexo4_consolidado.xlsx
+++ b/data/processed/anexo4_consolidado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aportillol\Downloads\archivos para proyecto supervision\processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexportillo/Documents/Proyectos Data Science/ucc-supervision/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FFE3DF-C73E-4FE8-97A5-C99BFB73C22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B72C9-D67D-9848-8DE4-6A72131D15DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="28480" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,21 +127,6 @@
     <t>ITEM_18</t>
   </si>
   <si>
-    <t>SUMA_TOTAL_CTZ</t>
-  </si>
-  <si>
-    <t>ITEMS_VALIDO</t>
-  </si>
-  <si>
-    <t>ITEMS_NA</t>
-  </si>
-  <si>
-    <t>PORCENTAJE</t>
-  </si>
-  <si>
-    <t>EVALUACION</t>
-  </si>
-  <si>
     <t>EXCELENTE</t>
   </si>
   <si>
@@ -182,6 +167,21 @@
   </si>
   <si>
     <t>YELITZA RAMOS</t>
+  </si>
+  <si>
+    <t>ITEMS_VALIDO_TOTAL</t>
+  </si>
+  <si>
+    <t>ITEMS_NA_TOTAL</t>
+  </si>
+  <si>
+    <t>SUMA_TOTAL</t>
+  </si>
+  <si>
+    <t>PORCENTAJE_TOTAL</t>
+  </si>
+  <si>
+    <t>EVALUACION_TOTAL</t>
   </si>
 </sst>
 </file>
@@ -559,17 +559,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="8.81640625" style="3"/>
-    <col min="7" max="7" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="8.83203125" style="3"/>
+    <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -628,19 +628,19 @@
         <v>28</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>29</v>
@@ -661,37 +661,37 @@
         <v>34</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AF1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="AN1" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2025</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="X2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -795,7 +795,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="AI2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AJ2">
         <v>18</v>
@@ -810,10 +810,10 @@
         <v>0.61111111111111116</v>
       </c>
       <c r="AN2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2025</v>
       </c>
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ3">
         <v>18</v>
@@ -932,10 +932,10 @@
         <v>1</v>
       </c>
       <c r="AN3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2025</v>
       </c>
@@ -952,7 +952,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>16</v>
@@ -1006,7 +1006,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="X4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>0.5</v>
       </c>
       <c r="AI4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AJ4">
         <v>18</v>
@@ -1054,7 +1054,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="AN4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
